--- a/data/Bloomberg_template/GHG_Emissions_ENB CN Equity.xlsx
+++ b/data/Bloomberg_template/GHG_Emissions_ENB CN Equity.xlsx
@@ -14,9 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ENB CN Equity 2018</t>
+  </si>
+  <si>
+    <t>ENB CN Equity 2019</t>
+  </si>
+  <si>
+    <t>ENB CN Equity 2020</t>
+  </si>
+  <si>
+    <t>ENB CN Equity 2021</t>
+  </si>
+  <si>
+    <t>ENB CN Equity 2022</t>
+  </si>
+  <si>
+    <t>ENB CN Equity 2023</t>
+  </si>
+  <si>
+    <t>ENB CN Equity 2024</t>
   </si>
 </sst>
 </file>
@@ -348,126 +366,1752 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:BJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:62">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <f>BDH("ENB CN Equity Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C1">
-        <f>BDH("ENB CN Equity Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D1">
-        <f>BDH("ENB CN Equity Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T1">
-        <f>BDH("ENB CN Equity Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U1">
-        <f>BDH("ENB CN Equity Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V1">
-        <f>BDH("ENB CN Equity Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W1">
-        <f>BDH("ENB CN Equity Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X1">
-        <f>BDP("ENB CN Equity Equity", "NAME")</f>
+        <f>BDP("ENB CN Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y1">
-        <f>BDH("ENB CN Equity Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z1">
-        <f>BDH("ENB CN Equity Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA1">
-        <f>BDH("ENB CN Equity Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB1">
-        <f>BDH("ENB CN Equity Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC1">
-        <f>BDH("ENB CN Equity Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("ENB CN Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <f>BDP("RYCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <f>BDP("BMOCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <f>BDP("TDCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <f>BDP("BNSCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <f>BDP("CMCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <f>BDP("NACN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <f>BDP("SLFCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <f>BDP("POWCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <f>BDP("MFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <f>BDP("BNCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <f>BDP("FFHCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <f>BDP("IFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <f>BDP("RYCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <f>BDP("BMOCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <f>BDP("TDCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <f>BDP("BNSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <f>BDP("CMCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <f>BDP("NACN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <f>BDP("SLFCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <f>BDP("POWCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <f>BDP("MFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <f>BDP("BNCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <f>BDP("FFHCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <f>BDP("IFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <f>BDP("SLF Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <f>BDP("POW Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <f>BDP("MFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <f>BDP("BN Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <f>BDP("FFH Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <f>BDP("IFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <f>BDP("OMERSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <f>BDP("CPPIBCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <f>BDP("HLTHONCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>BDH("ENB CN Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>BDH("ENB CN Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>BDH("ENB CN Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>BDP("ENB CN Equity", "NAME")</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>BDH("ENB CN Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>BDH("ENB CN Equity", "PX_LAST", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>BDH("ENB CN Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>BDH("ENB CN Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>BDH("ENB CN Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>BDP("RYCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>BDP("BMOCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>BDP("TDCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>BDP("BNSCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>BDP("CMCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f>BDP("NACN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f>BDP("SLFCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>BDP("POWCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <f>BDP("MFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <f>BDP("BNCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <f>BDP("FFHCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <f>BDP("IFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <f>BDP("RYCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <f>BDP("BMOCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <f>BDP("TDCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <f>BDP("BNSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <f>BDP("CMCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <f>BDP("NACN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <f>BDP("SLFCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <f>BDP("POWCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <f>BDP("MFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <f>BDP("BNCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <f>BDP("FFHCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <f>BDP("IFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <f>BDP("SLF Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <f>BDP("POW Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <f>BDP("MFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <f>BDP("BN Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <f>BDP("FFH Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <f>BDP("IFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <f>BDP("OMERSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <f>BDP("CPPIBCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <f>BDP("HLTHONCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>BDH("ENB CN Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>BDH("ENB CN Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>BDH("ENB CN Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>BDP("ENB CN Equity", "NAME")</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>BDH("ENB CN Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>BDH("ENB CN Equity", "PX_LAST", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>BDH("ENB CN Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>BDH("ENB CN Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>BDH("ENB CN Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>BDP("RYCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>BDP("BMOCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>BDP("TDCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f>BDP("BNSCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>BDP("CMCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f>BDP("NACN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f>BDP("SLFCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f>BDP("POWCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f>BDP("MFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f>BDP("BNCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f>BDP("FFHCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f>BDP("IFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f>BDP("RYCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <f>BDP("BMOCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f>BDP("TDCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <f>BDP("BNSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f>BDP("CMCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f>BDP("NACN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <f>BDP("SLFCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <f>BDP("POWCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <f>BDP("MFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <f>BDP("BNCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <f>BDP("FFHCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <f>BDP("IFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <f>BDP("SLF Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <f>BDP("POW Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <f>BDP("MFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <f>BDP("BN Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <f>BDP("FFH Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <f>BDP("IFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <f>BDP("OMERSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <f>BDP("CPPIBCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <f>BDP("HLTHONCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>BDH("ENB CN Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>BDH("ENB CN Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>BDH("ENB CN Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>BDP("ENB CN Equity", "NAME")</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>BDH("ENB CN Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>BDH("ENB CN Equity", "PX_LAST", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>BDH("ENB CN Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>BDH("ENB CN Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f>BDH("ENB CN Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f>BDP("RYCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>BDP("BMOCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f>BDP("TDCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f>BDP("BNSCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>BDP("CMCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f>BDP("NACN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f>BDP("SLFCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f>BDP("POWCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f>BDP("MFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f>BDP("BNCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>BDP("FFHCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f>BDP("IFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f>BDP("RYCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f>BDP("BMOCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <f>BDP("TDCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <f>BDP("BNSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <f>BDP("CMCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <f>BDP("NACN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <f>BDP("SLFCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <f>BDP("POWCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <f>BDP("MFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <f>BDP("BNCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <f>BDP("FFHCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <f>BDP("IFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <f>BDP("SLF Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <f>BDP("POW Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <f>BDP("MFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <f>BDP("BN Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <f>BDP("FFH Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <f>BDP("IFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <f>BDP("OMERSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <f>BDP("CPPIBCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <f>BDP("HLTHONCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>BDH("ENB CN Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>BDH("ENB CN Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>BDH("ENB CN Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>BDP("ENB CN Equity", "NAME")</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>BDH("ENB CN Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>BDH("ENB CN Equity", "PX_LAST", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>BDH("ENB CN Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f>BDH("ENB CN Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f>BDH("ENB CN Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f>BDP("RYCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f>BDP("BMOCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f>BDP("TDCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f>BDP("BNSCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>BDP("CMCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f>BDP("NACN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f>BDP("SLFCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f>BDP("POWCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <f>BDP("MFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <f>BDP("BNCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f>BDP("FFHCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>BDP("IFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <f>BDP("RYCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <f>BDP("BMOCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <f>BDP("TDCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <f>BDP("BNSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <f>BDP("CMCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <f>BDP("NACN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <f>BDP("SLFCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <f>BDP("POWCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <f>BDP("MFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <f>BDP("BNCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <f>BDP("FFHCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <f>BDP("IFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <f>BDP("SLF Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <f>BDP("POW Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <f>BDP("MFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <f>BDP("BN Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <f>BDP("FFH Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <f>BDP("IFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <f>BDP("OMERSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <f>BDP("CPPIBCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <f>BDP("HLTHONCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>BDH("ENB CN Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>BDH("ENB CN Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>BDH("ENB CN Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>BDP("ENB CN Equity", "NAME")</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>BDH("ENB CN Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>BDH("ENB CN Equity", "PX_LAST", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>BDH("ENB CN Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f>BDH("ENB CN Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f>BDH("ENB CN Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f>BDP("RYCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>BDP("BMOCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>BDP("TDCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f>BDP("BNSCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f>BDP("CMCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f>BDP("NACN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f>BDP("SLFCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <f>BDP("POWCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <f>BDP("MFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f>BDP("BNCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f>BDP("FFHCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f>BDP("IFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f>BDP("RYCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <f>BDP("BMOCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <f>BDP("TDCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <f>BDP("BNSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <f>BDP("CMCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <f>BDP("NACN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <f>BDP("SLFCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <f>BDP("POWCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <f>BDP("MFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <f>BDP("BNCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <f>BDP("FFHCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <f>BDP("IFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <f>BDP("SLF Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <f>BDP("POW Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <f>BDP("MFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <f>BDP("BN Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <f>BDP("FFH Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <f>BDP("IFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <f>BDP("OMERSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <f>BDP("CPPIBCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <f>BDP("HLTHONCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>BDH("ENB CN Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>BDH("ENB CN Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>BDH("ENB CN Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>BDH("ENB CN Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>BDH("ENB CN Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>BDP("ENB CN Equity", "NAME")</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>BDH("ENB CN Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>BDH("ENB CN Equity", "PX_LAST", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>BDH("ENB CN Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f>BDH("ENB CN Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>BDH("ENB CN Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>BDP("RYCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>BDP("BMOCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>BDP("TDCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f>BDP("BNSCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f>BDP("CMCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f>BDP("NACN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f>BDP("SLFCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f>BDP("POWCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f>BDP("MFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f>BDP("BNCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f>BDP("FFHCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f>BDP("IFCCN Equity Equity", "BANK_LOAN_TO_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f>BDP("RYCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f>BDP("BMOCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <f>BDP("TDCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <f>BDP("BNSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f>BDP("CMCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f>BDP("NACN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <f>BDP("SLFCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <f>BDP("POWCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f>BDP("MFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <f>BDP("BNCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <f>BDP("FFHCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <f>BDP("IFCCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <f>BDP("SLF Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <f>BDP("POW Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <f>BDP("MFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <f>BDP("BN Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <f>BDP("FFH Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <f>BDP("IFC Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <f>BDP("OMERSCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <f>BDP("CPPIBCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <f>BDP("HLTHONCN Equity Equity", "HOLDINGS_VALUE_IN_ENB CN Equity")</f>
         <v>0</v>
       </c>
     </row>
